--- a/blade-service/blade-anbiao/src/main/resources/templates/HiddenDanger.xlsx
+++ b/blade-service/blade-anbiao/src/main/resources/templates/HiddenDanger.xlsx
@@ -22,49 +22,49 @@
     <t>企业名称:</t>
   </si>
   <si>
-    <t>{{deptname}}</t>
+    <t>{deptname}</t>
   </si>
   <si>
     <t>车牌号:</t>
   </si>
   <si>
-    <t>{{cheliangpaizhao}}</t>
+    <t>{cheliangpaizhao}</t>
   </si>
   <si>
     <t>隐患类别:</t>
   </si>
   <si>
-    <t>{{ahdType}}</t>
+    <t>{ahdType}</t>
   </si>
   <si>
     <t>隐患描述:</t>
   </si>
   <si>
-    <t>{{ahdDescribe}}</t>
+    <t>{ahdDescribe}</t>
   </si>
   <si>
     <t>驾驶员:</t>
   </si>
   <si>
-    <t>{{ahdDriverName}}</t>
+    <t>{ahdDriverName}</t>
   </si>
   <si>
     <t>日期:</t>
   </si>
   <si>
-    <t>{{ahdDiscoveryTime}}</t>
+    <t>{ahdDiscoveryTime}</t>
   </si>
   <si>
     <t>隐患发现人:</t>
   </si>
   <si>
-    <t>{{ahdDiscovererName}}</t>
+    <t>{ahdDiscovererName}</t>
   </si>
   <si>
     <t>隐患照片:</t>
   </si>
   <si>
-    <t>{{ahdHiddendangerEnclosure}}</t>
+    <t>{ahdHiddendangerEnclosure}</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" outlineLevelRow="5" outlineLevelCol="7"/>
